--- a/biology/Botanique/Musa_acuminata/Musa_acuminata.xlsx
+++ b/biology/Botanique/Musa_acuminata/Musa_acuminata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Musa acuminata est une espèce de bananier de la famille des Musaceae originaire d'Asie du Sud-Est.
 La plupart des variétés de bananes comestibles modernes (et notamment la célèbre Cavendish) appartiennent à cette espèce, même si certaines (les bananes plantains, ‘Figue-Pomme’...) relèvent de l'espèce Musa ×paradisiaca, l'hybride  entre Musa acuminata et Musa balbisiana.
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bananier mesure jusqu'à 9 m de haut.
-L'hybride issu des bananiers sauvages d'Asie a une fleur mâle stérile à l'extrémité du régime de bananes[1].
+L'hybride issu des bananiers sauvages d'Asie a une fleur mâle stérile à l'extrémité du régime de bananes.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve Musa acuminata dans les régions suivantes : Chine, Inde, Sri Lanka, Indochine, Birmanie, Thaïlande, Indonésie, Malaisie et Philippines avec un centre secondaire de diversification en Afrique de l'est (sous-groupe triploïde AAA-EA) où elle a été introduite probablement dès le premier millénaire. L'espèce est largement cultivée ailleurs dans le monde.
 Musa acuminata préfère les climats tropicaux humides et est moins rustique que Musa balbisiana. En climat tempéré, l'espèce nécessite une protection contre le gel.
@@ -577,9 +593,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 juin 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 juin 2014) :
 sous-espèce Musa acuminata subsp. acuminata
 sous-espèce Musa acuminata subsp. burmanica
 sous-espèce Musa acuminata subsp. errans
@@ -591,7 +609,7 @@
 variété Musa acuminata var. chinensis
 variété Musa acuminata var. sumatrana
 variété Musa acuminata var. tomentosa
-Selon World Checklist of Selected Plant Families (WCSP)  (27 juin 2014)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (27 juin 2014) :
 sous-espèce Musa acuminata subsp. acuminata
 sous-espèce Musa acuminata subsp. burmannica N.W.Simmonds (1956 publ. 1957)
 variété Musa acuminata var. chinensis Häkkinen &amp; H.Wang (2007)
@@ -603,7 +621,7 @@
 variété Musa acuminata var. sumatrana (Becc.) Nasution (1991)
 variété Musa acuminata var. tomentosa (Warb. ex K.Schum.) Nasution (1991)
 sous-espèce Musa acuminata subsp. truncata (Ridl.) Kiew (2001)
-Selon NCBI  (27 juin 2014)[4] :
+Selon NCBI  (27 juin 2014) :
 non-classé Musa acuminata AAA Group
 non-classé Musa acuminata AAAA Group
 sous-espèce Musa acuminata subsp. acuminata
@@ -614,7 +632,7 @@
 sous-espèce Musa acuminata subsp. malaccensis
 sous-espèce Musa acuminata subsp. microcarpa
 sous-espèce Musa acuminata subsp. siamea
-Selon The Plant List            (27 juin 2014)[5] :
+Selon The Plant List            (27 juin 2014) :
 sous-espèce Musa acuminata subsp. burmanica N.W.Simmonds
 sous-espèce Musa acuminata subsp. errans (Blanco) R.V.Valmayor
 sous-espèce Musa acuminata subsp. halabanensis (Meijer) M.Hotta
@@ -623,7 +641,7 @@
 sous-espèce Musa acuminata subsp. truncata (Ridl.) Kiew
 variété Musa acuminata var. sumatrana (Becc.) Nasution
 variété Musa acuminata var. tomentosa (Warb. ex K.Schum.) Nasution
-Selon Tropicos                                           (27 juin 2014)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 juin 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Musa acuminata subsp. acuminata
 sous-espèce Musa acuminata subsp. banksii N.W. Simmonds
 sous-espèce Musa acuminata subsp. burmanica N.W. Simmonds
